--- a/Code/Results/Cases/Case_4_100/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_100/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.10674768380061</v>
+        <v>14.78044558139225</v>
       </c>
       <c r="C2">
-        <v>14.51190612649582</v>
+        <v>8.224335648617688</v>
       </c>
       <c r="D2">
-        <v>12.22360625592722</v>
+        <v>14.85986859867253</v>
       </c>
       <c r="E2">
-        <v>13.2209610816923</v>
+        <v>16.26334250504844</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>26.82803222706814</v>
+        <v>30.88242887003047</v>
       </c>
       <c r="H2">
-        <v>9.140340724634706</v>
+        <v>14.65051895999997</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.851095706174546</v>
+        <v>9.2715037375135</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.56715854951682</v>
+        <v>16.77687726198332</v>
       </c>
       <c r="O2">
-        <v>15.80439017934044</v>
+        <v>22.62262974175578</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.68801232517227</v>
+        <v>14.23954050940539</v>
       </c>
       <c r="C3">
-        <v>13.595926022826</v>
+        <v>7.738148651988909</v>
       </c>
       <c r="D3">
-        <v>11.69321249405863</v>
+        <v>14.79426895644785</v>
       </c>
       <c r="E3">
-        <v>12.65690675467831</v>
+        <v>16.19779271106441</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>25.74177068771646</v>
+        <v>30.80664250112963</v>
       </c>
       <c r="H3">
-        <v>9.083735534158075</v>
+        <v>14.69090892702754</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.753137088519631</v>
+        <v>9.278689457990106</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.6882588361922</v>
+        <v>16.82205832863171</v>
       </c>
       <c r="O3">
-        <v>15.48882902809339</v>
+        <v>22.66129664898792</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.76541219649776</v>
+        <v>13.89850151910049</v>
       </c>
       <c r="C4">
-        <v>13.00144820862571</v>
+        <v>7.423240421401375</v>
       </c>
       <c r="D4">
-        <v>11.36358037024045</v>
+        <v>14.75730251710598</v>
       </c>
       <c r="E4">
-        <v>12.30703853780056</v>
+        <v>16.16120642878973</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>25.08673947272119</v>
+        <v>30.77183785662221</v>
       </c>
       <c r="H4">
-        <v>9.05690990243453</v>
+        <v>14.71869154685317</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.695522540858325</v>
+        <v>9.28453756801127</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.76636957281463</v>
+        <v>16.85164572057771</v>
       </c>
       <c r="O4">
-        <v>15.30941834038854</v>
+        <v>22.69116905972054</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.37641799648419</v>
+        <v>13.75749286081038</v>
       </c>
       <c r="C5">
-        <v>12.75113544120247</v>
+        <v>7.290860983976294</v>
       </c>
       <c r="D5">
-        <v>11.22844354448945</v>
+        <v>14.74308276002726</v>
       </c>
       <c r="E5">
-        <v>12.16377427536942</v>
+        <v>16.14722895822826</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>24.82317579414724</v>
+        <v>30.76061003903406</v>
       </c>
       <c r="H5">
-        <v>9.0479057355462</v>
+        <v>14.73076175617877</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.67268897457964</v>
+        <v>9.287281985278442</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.79912942794889</v>
+        <v>16.86416779680582</v>
       </c>
       <c r="O5">
-        <v>15.23989018336236</v>
+        <v>22.70487905436391</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.31103671714766</v>
+        <v>13.73396229902264</v>
       </c>
       <c r="C6">
-        <v>12.70908487233514</v>
+        <v>7.268637108248277</v>
       </c>
       <c r="D6">
-        <v>11.20596129174771</v>
+        <v>14.74077289246175</v>
       </c>
       <c r="E6">
-        <v>12.1399499628465</v>
+        <v>16.14496458246872</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>24.77962561155716</v>
+        <v>30.75892426215494</v>
       </c>
       <c r="H6">
-        <v>9.046525016996243</v>
+        <v>14.73281117037732</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.668936636253111</v>
+        <v>9.287759516139307</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.80462488504114</v>
+        <v>16.86627518436296</v>
       </c>
       <c r="O6">
-        <v>15.22856052898496</v>
+        <v>22.70724824964983</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.76021893500738</v>
+        <v>13.89660776244422</v>
       </c>
       <c r="C7">
-        <v>12.99810501605632</v>
+        <v>7.421471408213876</v>
       </c>
       <c r="D7">
-        <v>11.36176087670342</v>
+        <v>14.75710731129192</v>
       </c>
       <c r="E7">
-        <v>12.30510893919356</v>
+        <v>16.16101413751913</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>25.08317083238803</v>
+        <v>30.77167446327971</v>
       </c>
       <c r="H7">
-        <v>9.056780754699851</v>
+        <v>14.71885130111308</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.695211978725382</v>
+        <v>9.284573117289447</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.76680764039745</v>
+        <v>16.85181271398832</v>
       </c>
       <c r="O7">
-        <v>15.30846619300154</v>
+        <v>22.69134774222247</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.62820614658037</v>
+        <v>14.59591301102451</v>
       </c>
       <c r="C8">
-        <v>14.20272930118112</v>
+        <v>8.060136080452557</v>
       </c>
       <c r="D8">
-        <v>12.04165589185033</v>
+        <v>14.83656969883043</v>
       </c>
       <c r="E8">
-        <v>13.02732103729114</v>
+        <v>16.23998794448362</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>26.45122368564688</v>
+        <v>30.85386842471747</v>
       </c>
       <c r="H8">
-        <v>9.119138124531196</v>
+        <v>14.66382539271003</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.816799069501257</v>
+        <v>9.273683440735919</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.60812505543996</v>
+        <v>16.79207301071811</v>
       </c>
       <c r="O8">
-        <v>15.69259685295808</v>
+        <v>22.63468688457063</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.88646635218915</v>
+        <v>15.8882638102363</v>
       </c>
       <c r="C9">
-        <v>16.31104098256312</v>
+        <v>9.180245164591103</v>
       </c>
       <c r="D9">
-        <v>13.33640860646407</v>
+        <v>15.01811596065581</v>
       </c>
       <c r="E9">
-        <v>14.40806474195379</v>
+        <v>16.42337036138095</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>29.21408365646366</v>
+        <v>31.10764494961053</v>
       </c>
       <c r="H9">
-        <v>9.30717657996551</v>
+        <v>14.57965495259999</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.074944555517408</v>
+        <v>9.263713807293087</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.32750906354013</v>
+        <v>16.68953689994127</v>
       </c>
       <c r="O9">
-        <v>16.56019897404867</v>
+        <v>22.57241350085322</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.03881045359862</v>
+        <v>16.78003484570339</v>
       </c>
       <c r="C10">
-        <v>17.70655383529595</v>
+        <v>9.920301413421551</v>
       </c>
       <c r="D10">
-        <v>14.25654486996125</v>
+        <v>15.16635903432118</v>
       </c>
       <c r="E10">
-        <v>15.39273839690591</v>
+        <v>16.57468966914013</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>31.27602223737744</v>
+        <v>31.34963637149394</v>
       </c>
       <c r="H10">
-        <v>9.489082035141157</v>
+        <v>14.53237146666486</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.276120900216779</v>
+        <v>9.263313400923634</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.14118800602574</v>
+        <v>16.62306598165971</v>
       </c>
       <c r="O10">
-        <v>17.26745136252773</v>
+        <v>22.55666115661964</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.96673411827293</v>
+        <v>17.17154415788506</v>
       </c>
       <c r="C11">
-        <v>18.30854246870025</v>
+        <v>10.23868685077186</v>
       </c>
       <c r="D11">
-        <v>14.66725554752811</v>
+        <v>15.23683062964879</v>
       </c>
       <c r="E11">
-        <v>15.83303347680406</v>
+        <v>16.64693920649839</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>32.2183878744247</v>
+        <v>31.47150548070529</v>
       </c>
       <c r="H11">
-        <v>9.582062368544376</v>
+        <v>14.51403870363891</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.370047147838942</v>
+        <v>9.264629465901896</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.06105441194511</v>
+        <v>16.59474159490664</v>
       </c>
       <c r="O11">
-        <v>17.60428957661142</v>
+        <v>22.55604375362152</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.31085597007091</v>
+        <v>17.31764735232749</v>
       </c>
       <c r="C12">
-        <v>18.53182302695196</v>
+        <v>10.3566083007763</v>
       </c>
       <c r="D12">
-        <v>14.82158606961408</v>
+        <v>15.26393505109751</v>
       </c>
       <c r="E12">
-        <v>15.99859566375872</v>
+        <v>16.67477146258235</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>32.57571437868553</v>
+        <v>31.51931934649388</v>
       </c>
       <c r="H12">
-        <v>9.618798511077962</v>
+        <v>14.50755460188001</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.405954547844275</v>
+        <v>9.265342622673893</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.03140608514276</v>
+        <v>16.58429037976111</v>
       </c>
       <c r="O12">
-        <v>17.7340053535675</v>
+        <v>22.55675320314294</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.23706457177876</v>
+        <v>17.28627885911992</v>
       </c>
       <c r="C13">
-        <v>18.48394294203311</v>
+        <v>10.33132962387691</v>
       </c>
       <c r="D13">
-        <v>14.78840227488737</v>
+        <v>15.25807931838524</v>
       </c>
       <c r="E13">
-        <v>15.9629916939021</v>
+        <v>16.66875654967112</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>32.49873860507878</v>
+        <v>31.50894825735326</v>
       </c>
       <c r="H13">
-        <v>9.610817972228009</v>
+        <v>14.50893067461184</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.398206234836314</v>
+        <v>9.265179490122117</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.03775986271724</v>
+        <v>16.58652903091111</v>
       </c>
       <c r="O13">
-        <v>17.70597267678292</v>
+        <v>22.55655844204915</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.99519020740128</v>
+        <v>17.18360791583429</v>
       </c>
       <c r="C14">
-        <v>18.32700541283972</v>
+        <v>10.24844139207395</v>
       </c>
       <c r="D14">
-        <v>14.67997669716232</v>
+        <v>15.23905224847968</v>
       </c>
       <c r="E14">
-        <v>15.84667810247727</v>
+        <v>16.64921961069662</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>32.24777656633712</v>
+        <v>31.47540597943915</v>
       </c>
       <c r="H14">
-        <v>9.585053769313232</v>
+        <v>14.51349606421415</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.372994498949619</v>
+        <v>9.264683837079948</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.05860107300446</v>
+        <v>16.59387626653396</v>
       </c>
       <c r="O14">
-        <v>17.61491807486128</v>
+        <v>22.55608320996675</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.84609234578924</v>
+        <v>17.12043543269453</v>
       </c>
       <c r="C15">
-        <v>18.23026860589832</v>
+        <v>10.19732518833518</v>
       </c>
       <c r="D15">
-        <v>14.6134054661261</v>
+        <v>15.22745155157539</v>
       </c>
       <c r="E15">
-        <v>15.77527889031546</v>
+        <v>16.63731371280018</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>32.09411294538623</v>
+        <v>31.45507619787373</v>
       </c>
       <c r="H15">
-        <v>9.569472857440452</v>
+        <v>14.51635219460553</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.357595629685529</v>
+        <v>9.264408186457494</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.07145862327742</v>
+        <v>16.59841240749723</v>
       </c>
       <c r="O15">
-        <v>17.5594258921093</v>
+        <v>22.55591498948487</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.97714670598137</v>
+        <v>16.75415351599253</v>
       </c>
       <c r="C16">
-        <v>17.66655518243066</v>
+        <v>9.899124961113342</v>
       </c>
       <c r="D16">
-        <v>14.229539594958</v>
+        <v>15.16181309535802</v>
       </c>
       <c r="E16">
-        <v>15.36380389275808</v>
+        <v>16.57003516818148</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>31.21450994410188</v>
+        <v>31.34190661328279</v>
       </c>
       <c r="H16">
-        <v>9.48321619620094</v>
+        <v>14.53363359399803</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.27003045574539</v>
+        <v>9.2632574876435</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.14652059434784</v>
+        <v>16.62495550500029</v>
       </c>
       <c r="O16">
-        <v>17.24574125290066</v>
+        <v>22.55683342959073</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.43103456438871</v>
+        <v>16.52573648104669</v>
       </c>
       <c r="C17">
-        <v>17.31235309501976</v>
+        <v>9.711495561672651</v>
       </c>
       <c r="D17">
-        <v>13.99198242481432</v>
+        <v>15.12231076929051</v>
       </c>
       <c r="E17">
-        <v>15.10936402538624</v>
+        <v>16.52962377874883</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>30.6758953826976</v>
+        <v>31.27547918133782</v>
       </c>
       <c r="H17">
-        <v>9.432960886172784</v>
+        <v>14.54504977381814</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.216923795832042</v>
+        <v>9.262934869445534</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.19377444393054</v>
+        <v>16.64172854524625</v>
       </c>
       <c r="O17">
-        <v>17.0571669887729</v>
+        <v>22.55907544155521</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.11210108028602</v>
+        <v>16.39303000095948</v>
       </c>
       <c r="C18">
-        <v>17.10553168424756</v>
+        <v>9.601857079409729</v>
       </c>
       <c r="D18">
-        <v>13.85460816769498</v>
+        <v>15.09987688665096</v>
       </c>
       <c r="E18">
-        <v>14.9623006784015</v>
+        <v>16.50670265540504</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>30.36651682109423</v>
+        <v>31.23838328351372</v>
       </c>
       <c r="H18">
-        <v>9.405015157005392</v>
+        <v>14.55191499582975</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.186605425011747</v>
+        <v>9.262890372091208</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.22138681451368</v>
+        <v>16.65155609997055</v>
       </c>
       <c r="O18">
-        <v>16.95012638085643</v>
+        <v>22.56098130762876</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.00328419856686</v>
+        <v>16.34787374664838</v>
       </c>
       <c r="C19">
-        <v>17.03497296426172</v>
+        <v>9.5644407391722</v>
       </c>
       <c r="D19">
-        <v>13.80797127297094</v>
+        <v>15.09233095756806</v>
       </c>
       <c r="E19">
-        <v>14.91238704391163</v>
+        <v>16.49899786871206</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>30.26184404107294</v>
+        <v>31.22601499080811</v>
       </c>
       <c r="H19">
-        <v>9.395716338630862</v>
+        <v>14.55429074327664</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.176379406340684</v>
+        <v>9.262899552068056</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.23080939313784</v>
+        <v>16.6549144985677</v>
       </c>
       <c r="O19">
-        <v>16.91412889961178</v>
+        <v>22.56173239389413</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.48966772604071</v>
+        <v>16.55019010019271</v>
       </c>
       <c r="C20">
-        <v>17.3503784141172</v>
+        <v>9.731647083310166</v>
       </c>
       <c r="D20">
-        <v>14.01734768129827</v>
+        <v>15.12648630405511</v>
       </c>
       <c r="E20">
-        <v>15.13652429329211</v>
+        <v>16.53389239620378</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>30.73318983543848</v>
+        <v>31.28243567498751</v>
       </c>
       <c r="H20">
-        <v>9.438210907149401</v>
+        <v>14.54380355326476</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.222553635364476</v>
+        <v>9.26295461747916</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.18869913955145</v>
+        <v>16.63992438615076</v>
       </c>
       <c r="O20">
-        <v>17.0770939172383</v>
+        <v>22.5587729747699</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.06643087453832</v>
+        <v>17.21382414230726</v>
       </c>
       <c r="C21">
-        <v>18.3732283995941</v>
+        <v>10.27285954756408</v>
       </c>
       <c r="D21">
-        <v>14.711856814319</v>
+        <v>15.24462975390511</v>
       </c>
       <c r="E21">
-        <v>15.88087436295942</v>
+        <v>16.65494539550838</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>32.32147834375957</v>
+        <v>31.48521323927341</v>
       </c>
       <c r="H21">
-        <v>9.592579479558562</v>
+        <v>14.51214265554484</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.380390627246928</v>
+        <v>9.264823598695942</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.05246033109998</v>
+        <v>16.59171075664489</v>
       </c>
       <c r="O21">
-        <v>17.64160438868362</v>
+        <v>22.55619718876976</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.05465301462086</v>
+        <v>17.63495505878879</v>
       </c>
       <c r="C22">
-        <v>19.01446851013464</v>
+        <v>10.61115633830986</v>
       </c>
       <c r="D22">
-        <v>15.15876782339672</v>
+        <v>15.32427293241146</v>
       </c>
       <c r="E22">
-        <v>16.36052611092773</v>
+        <v>16.73680818464016</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>33.36223984520899</v>
+        <v>31.62742655875716</v>
       </c>
       <c r="H22">
-        <v>9.702390402994487</v>
+        <v>14.4941212197297</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.485523748998469</v>
+        <v>9.267296681823051</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.96749766983194</v>
+        <v>16.56180079066063</v>
       </c>
       <c r="O22">
-        <v>18.02314800731932</v>
+        <v>22.56001192809522</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.5310556060589</v>
+        <v>17.41137638136497</v>
       </c>
       <c r="C23">
-        <v>18.67470447470905</v>
+        <v>10.4320159251255</v>
       </c>
       <c r="D23">
-        <v>14.92089892733268</v>
+        <v>15.28154972608546</v>
       </c>
       <c r="E23">
-        <v>16.10516838108752</v>
+        <v>16.69287120874648</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>32.80655448353176</v>
+        <v>31.55064923066283</v>
       </c>
       <c r="H23">
-        <v>9.642948041918316</v>
+        <v>14.50349481744096</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.429233060141841</v>
+        <v>9.265862470709338</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.01245936455631</v>
+        <v>16.57761804008021</v>
       </c>
       <c r="O23">
-        <v>17.81835984090228</v>
+        <v>22.55747251787659</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.46317515006652</v>
+        <v>16.53913892854065</v>
       </c>
       <c r="C24">
-        <v>17.33319709390111</v>
+        <v>9.722542085507753</v>
       </c>
       <c r="D24">
-        <v>14.00588253378196</v>
+        <v>15.12459768206602</v>
       </c>
       <c r="E24">
-        <v>15.12424756785563</v>
+        <v>16.53196158130637</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>30.70728613450509</v>
+        <v>31.279287233806</v>
       </c>
       <c r="H24">
-        <v>9.435834428061179</v>
+        <v>14.54436602921576</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.220007719797014</v>
+        <v>9.262945250204535</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.19099229935376</v>
+        <v>16.6407394716762</v>
       </c>
       <c r="O24">
-        <v>17.06808067470058</v>
+        <v>22.55890779846685</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.04782588939292</v>
+        <v>15.54816712961215</v>
       </c>
       <c r="C25">
-        <v>15.76776680653377</v>
+        <v>8.891659224694569</v>
       </c>
       <c r="D25">
-        <v>12.99114849224969</v>
+        <v>14.96632980909228</v>
       </c>
       <c r="E25">
-        <v>14.03927365161789</v>
+        <v>16.37078558254269</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>28.45997038693951</v>
+        <v>31.0291559028961</v>
       </c>
       <c r="H25">
-        <v>9.248877472146512</v>
+        <v>14.59987494445777</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.00305114244335</v>
+        <v>9.26519332040673</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.40003552147588</v>
+        <v>16.71571605418506</v>
       </c>
       <c r="O25">
-        <v>16.31320965298611</v>
+        <v>22.58400553575599</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_100/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_100/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.78044558139225</v>
+        <v>21.10674768380055</v>
       </c>
       <c r="C2">
-        <v>8.224335648617688</v>
+        <v>14.51190612649564</v>
       </c>
       <c r="D2">
-        <v>14.85986859867253</v>
+        <v>12.2236062559273</v>
       </c>
       <c r="E2">
-        <v>16.26334250504844</v>
+        <v>13.22096108169233</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>30.88242887003047</v>
+        <v>26.82803222706817</v>
       </c>
       <c r="H2">
-        <v>14.65051895999997</v>
+        <v>9.140340724634726</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.2715037375135</v>
+        <v>5.851095706174538</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.77687726198332</v>
+        <v>11.5671585495168</v>
       </c>
       <c r="O2">
-        <v>22.62262974175578</v>
+        <v>15.80439017934051</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.23954050940539</v>
+        <v>19.68801232517224</v>
       </c>
       <c r="C3">
-        <v>7.738148651988909</v>
+        <v>13.59592602282592</v>
       </c>
       <c r="D3">
-        <v>14.79426895644785</v>
+        <v>11.69321249405865</v>
       </c>
       <c r="E3">
-        <v>16.19779271106441</v>
+        <v>12.65690675467833</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>30.80664250112963</v>
+        <v>25.74177068771646</v>
       </c>
       <c r="H3">
-        <v>14.69090892702754</v>
+        <v>9.083735534158075</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.278689457990106</v>
+        <v>5.753137088519646</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.82205832863171</v>
+        <v>11.68825883619217</v>
       </c>
       <c r="O3">
-        <v>22.66129664898792</v>
+        <v>15.48882902809341</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.89850151910049</v>
+        <v>18.76541219649783</v>
       </c>
       <c r="C4">
-        <v>7.423240421401375</v>
+        <v>13.00144820862562</v>
       </c>
       <c r="D4">
-        <v>14.75730251710598</v>
+        <v>11.36358037024031</v>
       </c>
       <c r="E4">
-        <v>16.16120642878973</v>
+        <v>12.30703853780051</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>30.77183785662221</v>
+        <v>25.08673947272107</v>
       </c>
       <c r="H4">
-        <v>14.71869154685317</v>
+        <v>9.056909902434359</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.28453756801127</v>
+        <v>5.695522540858352</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.85164572057771</v>
+        <v>11.76636957281453</v>
       </c>
       <c r="O4">
-        <v>22.69116905972054</v>
+        <v>15.3094183403884</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.75749286081038</v>
+        <v>18.37641799648418</v>
       </c>
       <c r="C5">
-        <v>7.290860983976294</v>
+        <v>12.75113544120247</v>
       </c>
       <c r="D5">
-        <v>14.74308276002726</v>
+        <v>11.22844354448939</v>
       </c>
       <c r="E5">
-        <v>16.14722895822826</v>
+        <v>12.16377427536942</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>30.76061003903406</v>
+        <v>24.82317579414732</v>
       </c>
       <c r="H5">
-        <v>14.73076175617877</v>
+        <v>9.047905735546104</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.287281985278442</v>
+        <v>5.672688974579685</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.86416779680582</v>
+        <v>11.79912942794889</v>
       </c>
       <c r="O5">
-        <v>22.70487905436391</v>
+        <v>15.23989018336237</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.73396229902264</v>
+        <v>18.31103671714762</v>
       </c>
       <c r="C6">
-        <v>7.268637108248277</v>
+        <v>12.70908487233501</v>
       </c>
       <c r="D6">
-        <v>14.74077289246175</v>
+        <v>11.20596129174764</v>
       </c>
       <c r="E6">
-        <v>16.14496458246872</v>
+        <v>12.1399499628465</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>30.75892426215494</v>
+        <v>24.77962561155735</v>
       </c>
       <c r="H6">
-        <v>14.73281117037732</v>
+        <v>9.046525016996339</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.287759516139307</v>
+        <v>5.668936636253107</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.86627518436296</v>
+        <v>11.80462488504117</v>
       </c>
       <c r="O6">
-        <v>22.70724824964983</v>
+        <v>15.22856052898511</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.89660776244422</v>
+        <v>18.76021893500741</v>
       </c>
       <c r="C7">
-        <v>7.421471408213876</v>
+        <v>12.9981050160562</v>
       </c>
       <c r="D7">
-        <v>14.75710731129192</v>
+        <v>11.36176087670351</v>
       </c>
       <c r="E7">
-        <v>16.16101413751913</v>
+        <v>12.30510893919356</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>30.77167446327971</v>
+        <v>25.08317083238801</v>
       </c>
       <c r="H7">
-        <v>14.71885130111308</v>
+        <v>9.056780754699851</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.284573117289447</v>
+        <v>5.695211978725332</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.85181271398832</v>
+        <v>11.76680764039741</v>
       </c>
       <c r="O7">
-        <v>22.69134774222247</v>
+        <v>15.30846619300151</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.59591301102451</v>
+        <v>20.62820614658043</v>
       </c>
       <c r="C8">
-        <v>8.060136080452557</v>
+        <v>14.20272930118115</v>
       </c>
       <c r="D8">
-        <v>14.83656969883043</v>
+        <v>12.04165589185042</v>
       </c>
       <c r="E8">
-        <v>16.23998794448362</v>
+        <v>13.02732103729121</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>30.85386842471747</v>
+        <v>26.45122368564671</v>
       </c>
       <c r="H8">
-        <v>14.66382539271003</v>
+        <v>9.119138124531109</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.273683440735919</v>
+        <v>5.816799069501251</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.79207301071811</v>
+        <v>11.6081250554399</v>
       </c>
       <c r="O8">
-        <v>22.63468688457063</v>
+        <v>15.69259685295796</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.8882638102363</v>
+        <v>23.88646635218916</v>
       </c>
       <c r="C9">
-        <v>9.180245164591103</v>
+        <v>16.31104098256297</v>
       </c>
       <c r="D9">
-        <v>15.01811596065581</v>
+        <v>13.33640860646405</v>
       </c>
       <c r="E9">
-        <v>16.42337036138095</v>
+        <v>14.40806474195379</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>31.10764494961053</v>
+        <v>29.21408365646374</v>
       </c>
       <c r="H9">
-        <v>14.57965495259999</v>
+        <v>9.307176579965553</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.263713807293087</v>
+        <v>6.074944555517462</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.68953689994127</v>
+        <v>11.32750906354019</v>
       </c>
       <c r="O9">
-        <v>22.57241350085322</v>
+        <v>16.56019897404877</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.78003484570339</v>
+        <v>26.03881045359861</v>
       </c>
       <c r="C10">
-        <v>9.920301413421551</v>
+        <v>17.70655383529594</v>
       </c>
       <c r="D10">
-        <v>15.16635903432118</v>
+        <v>14.25654486996125</v>
       </c>
       <c r="E10">
-        <v>16.57468966914013</v>
+        <v>15.39273839690589</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>31.34963637149394</v>
+        <v>31.27602223737741</v>
       </c>
       <c r="H10">
-        <v>14.53237146666486</v>
+        <v>9.489082035141152</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.263313400923634</v>
+        <v>6.276120900216775</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.62306598165971</v>
+        <v>11.14118800602574</v>
       </c>
       <c r="O10">
-        <v>22.55666115661964</v>
+        <v>17.26745136252772</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.17154415788506</v>
+        <v>26.96673411827301</v>
       </c>
       <c r="C11">
-        <v>10.23868685077186</v>
+        <v>18.30854246870031</v>
       </c>
       <c r="D11">
-        <v>15.23683062964879</v>
+        <v>14.66725554752809</v>
       </c>
       <c r="E11">
-        <v>16.64693920649839</v>
+        <v>15.83303347680405</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>31.47150548070529</v>
+        <v>32.2183878744247</v>
       </c>
       <c r="H11">
-        <v>14.51403870363891</v>
+        <v>9.582062368544287</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.264629465901896</v>
+        <v>6.37004714783895</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.59474159490664</v>
+        <v>11.06105441194507</v>
       </c>
       <c r="O11">
-        <v>22.55604375362152</v>
+        <v>17.60428957661138</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.31764735232749</v>
+        <v>27.31085597007083</v>
       </c>
       <c r="C12">
-        <v>10.3566083007763</v>
+        <v>18.53182302695196</v>
       </c>
       <c r="D12">
-        <v>15.26393505109751</v>
+        <v>14.82158606961413</v>
       </c>
       <c r="E12">
-        <v>16.67477146258235</v>
+        <v>15.99859566375877</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>31.51931934649388</v>
+        <v>32.5757143786855</v>
       </c>
       <c r="H12">
-        <v>14.50755460188001</v>
+        <v>9.618798511077976</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.265342622673893</v>
+        <v>6.405954547844289</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.58429037976111</v>
+        <v>11.03140608514283</v>
       </c>
       <c r="O12">
-        <v>22.55675320314294</v>
+        <v>17.73400535356753</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.28627885911992</v>
+        <v>27.23706457177884</v>
       </c>
       <c r="C13">
-        <v>10.33132962387691</v>
+        <v>18.48394294203307</v>
       </c>
       <c r="D13">
-        <v>15.25807931838524</v>
+        <v>14.78840227488734</v>
       </c>
       <c r="E13">
-        <v>16.66875654967112</v>
+        <v>15.96299169390208</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>31.50894825735326</v>
+        <v>32.49873860507876</v>
       </c>
       <c r="H13">
-        <v>14.50893067461184</v>
+        <v>9.610817972227983</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.265179490122117</v>
+        <v>6.398206234836302</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.58652903091111</v>
+        <v>11.03775986271721</v>
       </c>
       <c r="O13">
-        <v>22.55655844204915</v>
+        <v>17.70597267678287</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.18360791583429</v>
+        <v>26.99519020740122</v>
       </c>
       <c r="C14">
-        <v>10.24844139207395</v>
+        <v>18.32700541283972</v>
       </c>
       <c r="D14">
-        <v>15.23905224847968</v>
+        <v>14.67997669716233</v>
       </c>
       <c r="E14">
-        <v>16.64921961069662</v>
+        <v>15.84667810247729</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>31.47540597943915</v>
+        <v>32.24777656633718</v>
       </c>
       <c r="H14">
-        <v>14.51349606421415</v>
+        <v>9.585053769313243</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.264683837079948</v>
+        <v>6.372994498949646</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.59387626653396</v>
+        <v>11.05860107300452</v>
       </c>
       <c r="O14">
-        <v>22.55608320996675</v>
+        <v>17.61491807486136</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.12043543269453</v>
+        <v>26.84609234578929</v>
       </c>
       <c r="C15">
-        <v>10.19732518833518</v>
+        <v>18.2302686058984</v>
       </c>
       <c r="D15">
-        <v>15.22745155157539</v>
+        <v>14.61340546612608</v>
       </c>
       <c r="E15">
-        <v>16.63731371280018</v>
+        <v>15.77527889031545</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>31.45507619787373</v>
+        <v>32.09411294538613</v>
       </c>
       <c r="H15">
-        <v>14.51635219460553</v>
+        <v>9.569472857440378</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.264408186457494</v>
+        <v>6.357595629685574</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.59841240749723</v>
+        <v>11.07145862327744</v>
       </c>
       <c r="O15">
-        <v>22.55591498948487</v>
+        <v>17.55942589210922</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.75415351599253</v>
+        <v>25.97714670598139</v>
       </c>
       <c r="C16">
-        <v>9.899124961113342</v>
+        <v>17.6665551824306</v>
       </c>
       <c r="D16">
-        <v>15.16181309535802</v>
+        <v>14.22953959495804</v>
       </c>
       <c r="E16">
-        <v>16.57003516818148</v>
+        <v>15.3638038927581</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>31.34190661328279</v>
+        <v>31.21450994410185</v>
       </c>
       <c r="H16">
-        <v>14.53363359399803</v>
+        <v>9.483216196200987</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.2632574876435</v>
+        <v>6.270030455745395</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.62495550500029</v>
+        <v>11.14652059434787</v>
       </c>
       <c r="O16">
-        <v>22.55683342959073</v>
+        <v>17.24574125290069</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.52573648104669</v>
+        <v>25.43103456438874</v>
       </c>
       <c r="C17">
-        <v>9.711495561672651</v>
+        <v>17.31235309501965</v>
       </c>
       <c r="D17">
-        <v>15.12231076929051</v>
+        <v>13.99198242481431</v>
       </c>
       <c r="E17">
-        <v>16.52962377874883</v>
+        <v>15.10936402538623</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>31.27547918133782</v>
+        <v>30.6758953826976</v>
       </c>
       <c r="H17">
-        <v>14.54504977381814</v>
+        <v>9.432960886172784</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.262934869445534</v>
+        <v>6.216923795832032</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.64172854524625</v>
+        <v>11.19377444393054</v>
       </c>
       <c r="O17">
-        <v>22.55907544155521</v>
+        <v>17.05716698877292</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.39303000095948</v>
+        <v>25.11210108028596</v>
       </c>
       <c r="C18">
-        <v>9.601857079409729</v>
+        <v>17.10553168424757</v>
       </c>
       <c r="D18">
-        <v>15.09987688665096</v>
+        <v>13.8546081676949</v>
       </c>
       <c r="E18">
-        <v>16.50670265540504</v>
+        <v>14.96230067840143</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>31.23838328351372</v>
+        <v>30.36651682109434</v>
       </c>
       <c r="H18">
-        <v>14.55191499582975</v>
+        <v>9.405015157005439</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.262890372091208</v>
+        <v>6.186605425011713</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.65155609997055</v>
+        <v>11.22138681451367</v>
       </c>
       <c r="O18">
-        <v>22.56098130762876</v>
+        <v>16.95012638085652</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.34787374664838</v>
+        <v>25.00328419856685</v>
       </c>
       <c r="C19">
-        <v>9.5644407391722</v>
+        <v>17.03497296426165</v>
       </c>
       <c r="D19">
-        <v>15.09233095756806</v>
+        <v>13.80797127297092</v>
       </c>
       <c r="E19">
-        <v>16.49899786871206</v>
+        <v>14.91238704391162</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>31.22601499080811</v>
+        <v>30.26184404107293</v>
       </c>
       <c r="H19">
-        <v>14.55429074327664</v>
+        <v>9.395716338630896</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.262899552068056</v>
+        <v>6.176379406340719</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.6549144985677</v>
+        <v>11.23080939313784</v>
       </c>
       <c r="O19">
-        <v>22.56173239389413</v>
+        <v>16.9141288996118</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.55019010019271</v>
+        <v>25.48966772604067</v>
       </c>
       <c r="C20">
-        <v>9.731647083310166</v>
+        <v>17.35037841411716</v>
       </c>
       <c r="D20">
-        <v>15.12648630405511</v>
+        <v>14.01734768129824</v>
       </c>
       <c r="E20">
-        <v>16.53389239620378</v>
+        <v>15.13652429329209</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>31.28243567498751</v>
+        <v>30.73318983543842</v>
       </c>
       <c r="H20">
-        <v>14.54380355326476</v>
+        <v>9.438210907149454</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.26295461747916</v>
+        <v>6.222553635364486</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.63992438615076</v>
+        <v>11.18869913955142</v>
       </c>
       <c r="O20">
-        <v>22.5587729747699</v>
+        <v>17.07709391723833</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.21382414230726</v>
+        <v>27.06643087453829</v>
       </c>
       <c r="C21">
-        <v>10.27285954756408</v>
+        <v>18.37322839959413</v>
       </c>
       <c r="D21">
-        <v>15.24462975390511</v>
+        <v>14.71185681431906</v>
       </c>
       <c r="E21">
-        <v>16.65494539550838</v>
+        <v>15.88087436295941</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>31.48521323927341</v>
+        <v>32.3214783437596</v>
       </c>
       <c r="H21">
-        <v>14.51214265554484</v>
+        <v>9.592579479558601</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.264823598695942</v>
+        <v>6.380390627246846</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.59171075664489</v>
+        <v>11.05246033110004</v>
       </c>
       <c r="O21">
-        <v>22.55619718876976</v>
+        <v>17.64160438868365</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.63495505878879</v>
+        <v>28.05465301462081</v>
       </c>
       <c r="C22">
-        <v>10.61115633830986</v>
+        <v>19.01446851013464</v>
       </c>
       <c r="D22">
-        <v>15.32427293241146</v>
+        <v>15.15876782339674</v>
       </c>
       <c r="E22">
-        <v>16.73680818464016</v>
+        <v>16.36052611092775</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>31.62742655875716</v>
+        <v>33.36223984520893</v>
       </c>
       <c r="H22">
-        <v>14.4941212197297</v>
+        <v>9.702390402994473</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.267296681823051</v>
+        <v>6.485523748998466</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.56180079066063</v>
+        <v>10.96749766983195</v>
       </c>
       <c r="O22">
-        <v>22.56001192809522</v>
+        <v>18.02314800731931</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.41137638136497</v>
+        <v>27.53105560605891</v>
       </c>
       <c r="C23">
-        <v>10.4320159251255</v>
+        <v>18.67470447470907</v>
       </c>
       <c r="D23">
-        <v>15.28154972608546</v>
+        <v>14.92089892733272</v>
       </c>
       <c r="E23">
-        <v>16.69287120874648</v>
+        <v>16.10516838108754</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>31.55064923066283</v>
+        <v>32.80655448353174</v>
       </c>
       <c r="H23">
-        <v>14.50349481744096</v>
+        <v>9.642948041918329</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.265862470709338</v>
+        <v>6.429233060141834</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.57761804008021</v>
+        <v>11.01245936455628</v>
       </c>
       <c r="O23">
-        <v>22.55747251787659</v>
+        <v>17.81835984090225</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.53913892854065</v>
+        <v>25.46317515006657</v>
       </c>
       <c r="C24">
-        <v>9.722542085507753</v>
+        <v>17.33319709390116</v>
       </c>
       <c r="D24">
-        <v>15.12459768206602</v>
+        <v>14.00588253378204</v>
       </c>
       <c r="E24">
-        <v>16.53196158130637</v>
+        <v>15.12424756785562</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>31.279287233806</v>
+        <v>30.70728613450505</v>
       </c>
       <c r="H24">
-        <v>14.54436602921576</v>
+        <v>9.435834428061138</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.262945250204535</v>
+        <v>6.220007719796979</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.6407394716762</v>
+        <v>11.19099229935377</v>
       </c>
       <c r="O24">
-        <v>22.55890779846685</v>
+        <v>17.06808067470054</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.54816712961215</v>
+        <v>23.047825889393</v>
       </c>
       <c r="C25">
-        <v>8.891659224694569</v>
+        <v>15.76776680653366</v>
       </c>
       <c r="D25">
-        <v>14.96632980909228</v>
+        <v>12.99114849224968</v>
       </c>
       <c r="E25">
-        <v>16.37078558254269</v>
+        <v>14.03927365161784</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>31.0291559028961</v>
+        <v>28.45997038693952</v>
       </c>
       <c r="H25">
-        <v>14.59987494445777</v>
+        <v>9.248877472146484</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.26519332040673</v>
+        <v>6.003051142443327</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.71571605418506</v>
+        <v>11.40003552147585</v>
       </c>
       <c r="O25">
-        <v>22.58400553575599</v>
+        <v>16.31320965298607</v>
       </c>
     </row>
   </sheetData>
